--- a/LLY.xlsx
+++ b/LLY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABE83E9-CB0B-4553-86E7-7DF15E3D6A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB09CAD4-0637-4BDC-B6F7-01FF1A649B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="27" r:id="rId1"/>
@@ -10588,7 +10588,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10632,7 +10634,7 @@
         <v>172</v>
       </c>
       <c r="J2" s="31">
-        <v>799</v>
+        <v>843.7</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -10684,7 +10686,7 @@
       </c>
       <c r="J4" s="18">
         <f>J2*J3</f>
-        <v>758503.23950599995</v>
+        <v>800937.65102780005</v>
       </c>
       <c r="K4" s="32"/>
     </row>
@@ -10764,7 +10766,7 @@
       </c>
       <c r="J7" s="18">
         <f>J4-J5+J6</f>
-        <v>782904.23950599995</v>
+        <v>825338.65102780005</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -11871,7 +11873,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:IQ157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="EV48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -54167,21 +54169,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -54295,10 +54282,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618E07D1-7A30-4E93-B1F2-5A094F0E4229}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1C9301-788F-493B-9914-82249B6113A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -54319,17 +54329,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1C9301-788F-493B-9914-82249B6113A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618E07D1-7A30-4E93-B1F2-5A094F0E4229}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/LLY.xlsx
+++ b/LLY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB09CAD4-0637-4BDC-B6F7-01FF1A649B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C65C5CB-329F-48A7-95D8-9BB74B2DD0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10588,7 +10588,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -54169,6 +54169,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -54282,33 +54297,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1C9301-788F-493B-9914-82249B6113A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618E07D1-7A30-4E93-B1F2-5A094F0E4229}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -54329,9 +54321,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{618E07D1-7A30-4E93-B1F2-5A094F0E4229}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F1C9301-788F-493B-9914-82249B6113A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>